--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.012821.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.012821.xlsx_with_dialog_acts.xlsx
@@ -515,12 +515,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -635,12 +635,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1035,12 +1035,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1195,12 +1195,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1675,12 +1675,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1755,12 +1755,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2279,12 +2279,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2519,12 +2519,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3359,12 +3359,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3599,12 +3599,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4039,12 +4039,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4327,12 +4327,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4367,12 +4367,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4567,12 +4567,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4647,12 +4647,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5615,12 +5615,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7103,12 +7103,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7143,12 +7143,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7303,12 +7303,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7423,12 +7423,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7787,12 +7787,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7827,12 +7827,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8551,12 +8551,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8831,12 +8831,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9199,12 +9199,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9279,12 +9279,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9363,12 +9363,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9483,12 +9483,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9843,12 +9843,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10163,12 +10163,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10403,12 +10403,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10443,12 +10443,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10563,12 +10563,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10923,12 +10923,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11203,12 +11203,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11283,12 +11283,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11963,12 +11963,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12443,12 +12443,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12523,12 +12523,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12843,12 +12843,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13043,12 +13043,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13275,12 +13275,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13427,12 +13427,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13807,12 +13807,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
